--- a/tools/excel/aircyber/aircyber-v1.5.2.xlsx
+++ b/tools/excel/aircyber/aircyber-v1.5.2.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="library_content" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="controls" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="implementation_groups" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="library_meta" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="controls_meta" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="controls_content" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="implementation_groups_meta" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="implementation_groups_content" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,199 +428,125 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>library_urn</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:library:aircyber-v1.5.2</t>
+          <t>library</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>library_version</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+          <t>urn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:library:aircyber-v1.5.2</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>library_locale</t>
+          <t>version</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>library_ref_id</t>
+          <t>locale</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AirCyber-v1.5.2</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>library_name</t>
+          <t>ref_id</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Public AirCyber Maturity Level Matrix</t>
+          <t>AirCyber-v1.5.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>library_description</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">AirCyber is the AeroSpace and Defense official standard for Cybersecurity maturity evaluation and increase built by Airbus, Dassault Aviation, Safran and Thales to help the AeroSpace SupplyChain to be more resilient.
+          <t>Public AirCyber Maturity Level Matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AirCyber is the AeroSpace and Defense official standard for Cybersecurity maturity evaluation and increase built by Airbus, Dassault Aviation, Safran and Thales to help the AeroSpace SupplyChain to be more resilient.
 Their joint venture BoostAeroSpace is offering this extract of the AirCyber maturity level matrix to provide further details on this standard, the questions and the AirCyber maturity levels they are associated to.
 AirCyber program uses this maturity level matrix as the base of the cyber maturity evaluation as is the evaluation activity is the very starting point for any cyber maturity progression. Being aware of the problems is the mandatory very first knowledge a company shall know to decide to launch a cybersecurity company program.
-Source: https://boostaerospace.com/aircyber/
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>library_copyright</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">© Boost Aerospace
-This work is licensed under a Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License. Any commercial use of this work must be contracted with BoostAeroSpace.
-Permission given to include AirCyber in CISO Assistant.
-</t>
+Source: https://boostaerospace.com/aircyber/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>library_provider</t>
+          <t>copyright</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Boost Aerospace</t>
+          <t>© Boost Aerospace
+This work is licensed under a Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License. Any commercial use of this work must be contracted with BoostAeroSpace.
+Permission given to include AirCyber in CISO Assistant.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>library_packager</t>
+          <t>provider</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>intuitem</t>
+          <t>Boost Aerospace</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>framework_urn</t>
+          <t>packager</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:framework:aircyber-v1.5.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>framework_ref_id</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AirCyber-v1.5.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>framework_name</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Public AirCyber Maturity Level Matrix</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>framework_description</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AirCyber is the AeroSpace and Defense official standard for Cybersecurity maturity evaluation and increase built by Airbus, Dassault Aviation, Safran and Thales to help the AeroSpace SupplyChain to be more resilient.
-Their joint venture BoostAeroSpace is offering this extract of the AirCyber maturity level matrix to provide further details on this standard, the questions and the AirCyber maturity levels they are associated to.
-AirCyber program uses this maturity level matrix as the base of the cyber maturity evaluation as is the evaluation activity is the very starting point for any cyber maturity progression. Being aware of the problems is the mandatory very first knowledge a company shall know to decide to launch a cybersecurity company program.
-Source: https://boostaerospace.com/aircyber/
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>controls</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>implementation_groups</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>implementation_groups</t>
+          <t>intuitem</t>
         </is>
       </c>
     </row>
@@ -628,6 +556,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>base_urn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:req_node:aircyber-v1.5.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>urn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:framework:aircyber-v1.5.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AirCyber-v1.5.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Public AirCyber Maturity Level Matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AirCyber is the AeroSpace and Defense official standard for Cybersecurity maturity evaluation and increase built by Airbus, Dassault Aviation, Safran and Thales to help the AeroSpace SupplyChain to be more resilient.
+Their joint venture BoostAeroSpace is offering this extract of the AirCyber maturity level matrix to provide further details on this standard, the questions and the AirCyber maturity levels they are associated to.
+AirCyber program uses this maturity level matrix as the base of the cyber maturity evaluation as is the evaluation activity is the very starting point for any cyber maturity progression. Being aware of the problems is the mandatory very first knowledge a company shall know to decide to launch a cybersecurity company program.
+Source: https://boostaerospace.com/aircyber/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>implementation_groups_definition</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7483,7 +7517,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7520,8 +7597,6 @@
           <t>Bronze</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7529,8 +7604,6 @@
           <t>Silver</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7538,8 +7611,6 @@
           <t>Gold</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
